--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,18 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -70,286 +70,271 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>owned</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>pan</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>anyone</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>far</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>big</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>also</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>one</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>much</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -710,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -821,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -847,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -871,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.475</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8671875</v>
+        <v>0.84375</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -921,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3207547169811321</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8297213622291022</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>536</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>536</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,37 +964,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2790697674418605</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>36</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.8188854489164087</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1021,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2564102564102564</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7532467532467533</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2525252525252525</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1121,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,13 +1114,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1351351351351351</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7186147186147186</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L10">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,13 +1164,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6926406926406926</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1190,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6875</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1216,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.6818181818181818</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1242,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6576271186440678</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1268,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6571428571428571</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1294,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6396468699839486</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>797</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>797</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>449</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1335,13 +1320,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6323529411764706</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1361,13 +1346,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6222222222222222</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1379,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1387,13 +1372,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L19">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1413,13 +1398,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5774647887323944</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1439,13 +1424,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5726495726495726</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L21">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1457,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1465,13 +1450,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.543859649122807</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1483,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1491,13 +1476,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1509,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1517,13 +1502,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5277777777777778</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1535,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1543,13 +1528,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5180722891566265</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1569,13 +1554,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.51</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1587,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1595,13 +1580,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5096153846153846</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1613,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1621,13 +1606,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5037593984962406</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1639,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1647,13 +1632,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1665,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1673,13 +1658,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4910179640718563</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L30">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1691,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1699,13 +1684,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4761904761904762</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1717,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1725,13 +1710,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1743,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1751,13 +1736,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1769,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1777,13 +1762,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4156626506024096</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L34">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1829,13 +1814,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3934426229508197</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1847,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>37</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1855,13 +1840,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3735408560311284</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L37">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1873,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1881,13 +1866,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3725490196078431</v>
+        <v>0.377431906614786</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1899,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1907,13 +1892,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1925,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1959,13 +1944,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3627450980392157</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L41">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1985,13 +1970,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3571428571428572</v>
+        <v>0.3493150684931507</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2003,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2011,13 +1996,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.3529411764705883</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2029,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2037,13 +2022,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.3438356164383561</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L44">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2055,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>479</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2063,13 +2048,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.3387096774193548</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2081,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2089,13 +2074,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.3265306122448979</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2107,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2115,13 +2100,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.3243243243243243</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="L47">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2133,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2141,13 +2126,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.3157894736842105</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2159,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2167,13 +2152,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.3035714285714285</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2185,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2193,13 +2178,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.3026315789473684</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2211,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2219,13 +2204,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.2980132450331126</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2237,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2245,13 +2230,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2857142857142857</v>
+        <v>0.2626480086114101</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2263,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>60</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2271,13 +2256,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2727272727272727</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2289,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2297,13 +2282,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.2661870503597122</v>
+        <v>0.25</v>
       </c>
       <c r="L54">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2315,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2323,13 +2308,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2615384615384616</v>
+        <v>0.25</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2341,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2349,13 +2334,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.2540365984930033</v>
+        <v>0.2392344497607655</v>
       </c>
       <c r="L56">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="M56">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2367,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>693</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2375,13 +2360,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.2392344497607655</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2393,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>159</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2401,13 +2386,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.2382445141065831</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L58">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M58">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2419,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2427,13 +2412,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.2222222222222222</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2445,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2453,13 +2438,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.2079207920792079</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2471,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>80</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2479,13 +2464,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1969309462915601</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L61">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2497,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>628</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2505,13 +2490,13 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1891891891891892</v>
+        <v>0.1879795396419437</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2523,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>90</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2531,13 +2516,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.1827814569536424</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L63">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="M63">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2549,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>617</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2557,13 +2542,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.174496644295302</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2575,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2583,13 +2568,13 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1720430107526882</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2601,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2609,25 +2594,25 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1607142857142857</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>94</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2635,13 +2620,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1557377049180328</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2653,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2661,25 +2646,25 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1524390243902439</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2687,13 +2672,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1470588235294118</v>
+        <v>0.16</v>
       </c>
       <c r="L69">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2705,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>203</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2713,13 +2698,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1467889908256881</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2731,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2739,25 +2724,25 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1463414634146341</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M71">
         <v>25</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2765,25 +2750,25 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.145985401459854</v>
+        <v>0.1432432432432433</v>
       </c>
       <c r="L72">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M72">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2791,13 +2776,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1367521367521368</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2809,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>101</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2817,13 +2802,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1346153846153846</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M74">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2835,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>135</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2843,13 +2828,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1318181818181818</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L75">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M75">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2861,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>382</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2869,13 +2854,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.1307692307692308</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2887,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>113</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2895,13 +2880,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1299435028248588</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2913,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2921,13 +2906,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.124031007751938</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2939,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>113</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2947,13 +2932,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1237113402061856</v>
+        <v>0.1026252983293556</v>
       </c>
       <c r="L79">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M79">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2965,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>255</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2973,13 +2958,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1185983827493261</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L80">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M80">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2991,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>327</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2999,13 +2984,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.0962962962962963</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L81">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3017,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3025,13 +3010,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.09429824561403509</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L82">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3043,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>413</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3051,13 +3036,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.09307875894988067</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L83">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3069,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>380</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3077,25 +3062,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.08856088560885608</v>
+        <v>0.08034433285509325</v>
       </c>
       <c r="L84">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M84">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>247</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3103,25 +3088,25 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.08493150684931507</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L85">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M85">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N85">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3129,25 +3114,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.08374384236453201</v>
+        <v>0.07383177570093458</v>
       </c>
       <c r="L86">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>186</v>
+        <v>991</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3155,13 +3140,13 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.07736389684813753</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L87">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3173,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>644</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3181,13 +3166,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.07692307692307693</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3199,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>192</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3207,13 +3192,13 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.07258064516129033</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3225,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>230</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3233,25 +3218,25 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.07196261682242991</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="L90">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="M90">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="N90">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>993</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3259,13 +3244,13 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.06091370558375635</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="L91">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3277,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>370</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3285,155 +3270,25 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.05740740740740741</v>
+        <v>0.03722943722943723</v>
       </c>
       <c r="L92">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M92">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N92">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O92">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K93">
-        <v>0.0467032967032967</v>
-      </c>
-      <c r="L93">
-        <v>17</v>
-      </c>
-      <c r="M93">
-        <v>18</v>
-      </c>
-      <c r="N93">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O93">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P93" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q93">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
-      <c r="J94" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K94">
-        <v>0.04152249134948097</v>
-      </c>
-      <c r="L94">
-        <v>48</v>
-      </c>
-      <c r="M94">
-        <v>49</v>
-      </c>
-      <c r="N94">
-        <v>0.98</v>
-      </c>
-      <c r="O94">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P94" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q94">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
-      <c r="J95" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K95">
-        <v>0.0412621359223301</v>
-      </c>
-      <c r="L95">
-        <v>17</v>
-      </c>
-      <c r="M95">
-        <v>19</v>
-      </c>
-      <c r="N95">
-        <v>0.89</v>
-      </c>
-      <c r="O95">
-        <v>0.11</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
-      <c r="J96" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K96">
-        <v>0.03639846743295019</v>
-      </c>
-      <c r="L96">
-        <v>19</v>
-      </c>
-      <c r="M96">
-        <v>19</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K97">
-        <v>0.02628120893561104</v>
-      </c>
-      <c r="L97">
-        <v>20</v>
-      </c>
-      <c r="M97">
-        <v>26</v>
-      </c>
-      <c r="N97">
-        <v>0.77</v>
-      </c>
-      <c r="O97">
-        <v>0.23</v>
-      </c>
-      <c r="P97" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>741</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
